--- a/periodic_table.xlsx
+++ b/periodic_table.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danilashiryaev/Documents/study/hunter/solid-state/python/Filtering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danila/Documents/GitHub/stex-data-preprocessor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C0A8174-4750-7E4F-804D-06CEC58AD455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0057030E-04EF-C445-9339-E59F4B24F157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="860" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="860" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full periodic" sheetId="1" r:id="rId1"/>
     <sheet name="PCA" sheetId="2" r:id="rId2"/>
+    <sheet name="ML" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
   <si>
     <t>H</t>
   </si>
@@ -282,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +299,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -330,14 +339,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1531,4 +1552,384 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC323BE-6FDD-DE49-97DF-554A65E0E459}">
+  <dimension ref="A1:A73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/periodic_table.xlsx
+++ b/periodic_table.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danila/Documents/GitHub/stex-data-preprocessor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0057030E-04EF-C445-9339-E59F4B24F157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC0703-BBDA-F249-A39C-365A3F471080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="860" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="-4920" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full periodic" sheetId="1" r:id="rId1"/>
     <sheet name="PCA" sheetId="2" r:id="rId2"/>
     <sheet name="ML" sheetId="3" r:id="rId3"/>
+    <sheet name="Metals" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="85">
   <si>
     <t>H</t>
   </si>
@@ -1113,7 +1114,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1558,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC323BE-6FDD-DE49-97DF-554A65E0E459}">
   <dimension ref="A1:A73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1932,4 +1933,364 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB214D8-E5CF-0F4A-88CD-EB07A0B96AB3}">
+  <dimension ref="A1:A69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>